--- a/Finflux Automation Excels/Client/4947-Advanced-Accounting-Rule.xlsx
+++ b/Finflux Automation Excels/Client/4947-Advanced-Accounting-Rule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="12"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="112">
   <si>
     <t>CenterVillageName</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>$ 7.17</t>
+  </si>
+  <si>
+    <t>ReceiptNumber</t>
   </si>
 </sst>
 </file>
@@ -1918,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,10 +1942,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1953,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,10 +1985,18 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/4947-Advanced-Accounting-Rule.xlsx
+++ b/Finflux Automation Excels/Client/4947-Advanced-Accounting-Rule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="12"/>
@@ -1279,13 +1279,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Finflux Automation Excels/Client/4947-Advanced-Accounting-Rule.xlsx
+++ b/Finflux Automation Excels/Client/4947-Advanced-Accounting-Rule.xlsx
@@ -376,7 +376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +416,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -465,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -514,10 +521,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1279,379 +1288,362 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="24">
         <v>1351</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="25">
         <v>42030</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>1352</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="25">
         <v>42030</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="24">
         <v>1364</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="25">
         <v>42044</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="24">
         <v>1365</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="25">
         <v>42044</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="24">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="24">
         <v>1366</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="25">
         <v>42058</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="24">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="24">
         <v>1367</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25">
         <v>42058</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>1366</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="B11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="25">
         <v>42072</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="24">
         <v>3</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="24">
         <v>1367</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="B12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="25">
         <v>42072</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="24">
         <v>3</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="24">
         <v>1366</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="25">
         <v>42086</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="24">
         <v>3</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="24">
         <v>1367</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="25">
         <v>42086</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="24">
         <v>3</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="24">
         <v>1366</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="B17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="25">
         <v>42095</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="24">
         <v>3</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="24">
         <v>1367</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="25">
         <v>42095</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <v>3</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="24" t="s">
         <v>110</v>
       </c>
     </row>
